--- a/fMRI Tasks/N-Of-Many/WASABI distractmap/nbackorder/N-back-2_1.xlsx
+++ b/fMRI Tasks/N-Of-Many/WASABI distractmap/nbackorder/N-back-2_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dartmouth\Documents\GitHub\canlab\WASABI_public\fMRI Tasks\WASABI distractmap\nbackorder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\canlab\WASABI_public\fMRI Tasks\N-Of-Many\WASABI distractmap\nbackorder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D12F1A2-3D97-4322-A14E-3680F72B43CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598797DC-4DB4-4615-8FB9-DDC0BFD5D3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="1590" windowWidth="21600" windowHeight="11385" xr2:uid="{9E708839-20C0-4469-8AD7-FDAFC5EA317B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="24312" xr2:uid="{9E708839-20C0-4469-8AD7-FDAFC5EA317B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="1" r:id="rId1"/>
@@ -624,15 +624,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0696A6F-C413-4CA9-83CB-A6DFD7C9F6A6}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -643,7 +643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -652,7 +652,7 @@
         <v>[0, 0.2]</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -661,7 +661,7 @@
         <v>[0, 0.2]</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -674,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -736,30 +736,6 @@
       </c>
       <c r="C9">
         <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="str">
-        <f>VLOOKUP(A10,'[2]Square Locations'!A$1:$B$10,2,FALSE)</f>
-        <v>[0.2, 0]</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="str">
-        <f>VLOOKUP(A11,'[2]Square Locations'!A$1:$B$10,2,FALSE)</f>
-        <v>[-0.2, 0.2]</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
